--- a/cp1/Hurdzhyia_fb-95_Zolotov_fb-94_сp1/эксель/Монограмы с пробелами.xlsx
+++ b/cp1/Hurdzhyia_fb-95_Zolotov_fb-94_сp1/эксель/Монограмы с пробелами.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,12 +501,12 @@
         <v>0.99999999999999822</v>
       </c>
       <c r="G2">
-        <f>-0.5*SUM(D1:D32)</f>
-        <v>2.1903762801456632</v>
+        <f>-SUM(D1:D32)</f>
+        <v>4.3807525602913264</v>
       </c>
       <c r="H2">
         <f>1-(G2/LOG(32,2))</f>
-        <v>0.56192474397086734</v>
+        <v>0.12384948794173467</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -520,7 +520,7 @@
         <v>1.54609568801258E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D32" si="0">C3*LOG(C3,2)</f>
+        <f>C3*LOG(C3,2)</f>
         <v>-9.300115876538867E-2</v>
       </c>
     </row>
@@ -535,7 +535,7 @@
         <v>3.4330050276872297E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D32" si="0">C4*LOG(C4,2)</f>
         <v>-0.16699455482590614</v>
       </c>
     </row>
